--- a/数据整理/stocks/A股/深证主板/002607-中公教育.xlsx
+++ b/数据整理/stocks/A股/深证主板/002607-中公教育.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2960,7 +2961,6 @@
           <t>银华稳利灵活配置混合C</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>21.05</t>
@@ -2976,6 +2976,782 @@
       </c>
       <c r="H33" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.0980</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>131.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.2755</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6960</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2653</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6273</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1622</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9648</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4822</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4047</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2897</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2343</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003769</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002607-中公教育.xlsx
+++ b/数据整理/stocks/A股/深证主板/002607-中公教育.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3757,4 +3758,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3764</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2977</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002607-中公教育.xlsx
+++ b/数据整理/stocks/A股/深证主板/002607-中公教育.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4042,4 +4043,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002607-中公教育.xlsx
+++ b/数据整理/stocks/A股/深证主板/002607-中公教育.xlsx
@@ -4067,12 +4067,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002607-中公教育.xlsx
+++ b/数据整理/stocks/A股/深证主板/002607-中公教育.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>27.37</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>34.83</v>
+        <v>27.37</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>32</v>
       </c>
       <c r="D5" t="n">
+        <v>34.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>32</v>
+      </c>
+      <c r="D6" t="n">
         <v>21.42</v>
       </c>
     </row>
@@ -549,6 +566,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -832,7 +943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1601,1271 +1712,6 @@
       </c>
       <c r="H20" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519736</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银新成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>151.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>8.4605</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519688</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>128.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>7.1664</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501087</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德瑞丰三年封闭运作混合型</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>51.98</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.6146</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519692</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银成长混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>29.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.0640</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010094</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>交银施罗德产业机遇混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>42.28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.49</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.8307</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519694</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>交银蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>21.69</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.5335</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华核心价值优选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>38.63</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.25</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.4679</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519773</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>交银施罗德数据产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22.74</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.1575</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏成长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>42.71</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>69.41</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.1318</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010143</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>交银施罗德启欣混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>50.75</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>68.45</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.1317</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160212</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国泰估值优势混合 (LOF)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>12.20</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.69</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.9382</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>020003</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰金龙行业混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.59</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>76.58</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.8813</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501083</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>18.19</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>58.35</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.8040</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>163801</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中银中国混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>15.44</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.6763</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>160211</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国泰中小盘成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.5998</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003956</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>南方现代教育股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3427</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001759</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实成长增强灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.3176</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>180013</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>银华领先策略混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.48</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.3043</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006223</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>交银施罗德创新成长混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.57</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.11</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2536</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008671</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>银华科技创新混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>84.97</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.2135</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008734</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>交银施罗德科锐科技创新混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>81.32</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.2098</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001728</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>银华战略新兴灵活配置定期开放混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1548</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005251</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>银华多元动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>88.95</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1498</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>003412</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>鹏华弘康灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1166</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>180018</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>银华和谐主题混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>77.94</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1149</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001303</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>银华稳利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>21.05</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0719</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003397</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>银华体育文化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0658</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>180028</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>银华永祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>77.84</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>960016</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>交银成长混合H</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>78.73</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>168301</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>东海祥龙灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006803</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>嘉实互通精选股票</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>87.95</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>002323</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>银华稳利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>21.05</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2930,6 +1776,1271 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>151.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4605</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>128.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.1664</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0640</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8307</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5335</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4679</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1575</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1318</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010143</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德启欣混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1317</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9382</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8813</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>58.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8040</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6763</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5998</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3427</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3176</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3043</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006223</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德创新成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2536</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003412</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华弘康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>519692</t>
         </is>
       </c>

--- a/数据整理/stocks/A股/深证主板/002607-中公教育.xlsx
+++ b/数据整理/stocks/A股/深证主板/002607-中公教育.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.28</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>27.37</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>34.83</v>
+        <v>27.37</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>32</v>
       </c>
       <c r="D6" t="n">
+        <v>34.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>32</v>
+      </c>
+      <c r="D7" t="n">
         <v>21.42</v>
       </c>
     </row>
@@ -566,6 +583,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国新国证新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国新国证新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -659,7 +960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -943,7 +1244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1712,1271 +2013,6 @@
       </c>
       <c r="H20" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519736</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银新成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>151.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>8.4605</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519688</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>128.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>7.1664</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501087</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德瑞丰三年封闭运作混合型</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>51.98</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.6146</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519692</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银成长混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>29.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.0640</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010094</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>交银施罗德产业机遇混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>42.28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.49</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.8307</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519694</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>交银蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>21.69</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.5335</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华核心价值优选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>38.63</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.25</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.4679</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519773</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>交银施罗德数据产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22.74</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.1575</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏成长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>42.71</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>69.41</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.1318</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010143</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>交银施罗德启欣混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>50.75</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>68.45</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.1317</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160212</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国泰估值优势混合 (LOF)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>12.20</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.69</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.9382</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>020003</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰金龙行业混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.59</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>76.58</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.8813</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501083</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>18.19</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>58.35</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.8040</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>163801</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中银中国混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>15.44</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.6763</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>160211</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国泰中小盘成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.5998</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003956</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>南方现代教育股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3427</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001759</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实成长增强灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.3176</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>180013</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>银华领先策略混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.48</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.3043</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006223</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>交银施罗德创新成长混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.57</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.11</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2536</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008671</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>银华科技创新混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>84.97</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.2135</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008734</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>交银施罗德科锐科技创新混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>81.32</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.2098</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001728</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>银华战略新兴灵活配置定期开放混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1548</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005251</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>银华多元动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>88.95</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1498</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>003412</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>鹏华弘康灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1166</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>180018</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>银华和谐主题混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>77.94</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1149</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001303</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>银华稳利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>21.05</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0719</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003397</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>银华体育文化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0658</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>180028</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>银华永祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>77.84</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>960016</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>交银成长混合H</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>78.73</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>168301</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>东海祥龙灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006803</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>嘉实互通精选股票</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>87.95</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>002323</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>银华稳利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>21.05</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3041,6 +2077,1271 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>151.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4605</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>128.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.1664</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0640</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8307</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5335</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4679</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1575</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1318</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010143</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德启欣混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1317</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9382</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8813</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>58.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8040</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6763</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5998</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3427</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3176</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3043</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006223</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德创新成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2536</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003412</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华弘康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>519692</t>
         </is>
       </c>
